--- a/用例数据/深港/深港转托管/测试结果.xlsx
+++ b/用例数据/深港/深港转托管/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8820" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="exchangerights" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exchangerights!$A$1:$BM$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tradinglog!$A$1:$EF$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tradinglog!$A$1:$EE$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5725" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="520">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -994,18 +994,12 @@
     <t>005_004_019</t>
   </si>
   <si>
-    <t>1925</t>
-  </si>
-  <si>
     <t>000011725200</t>
   </si>
   <si>
     <t>焦振鹏主股东</t>
   </si>
   <si>
-    <t>99108498.140</t>
-  </si>
-  <si>
     <t>2075</t>
   </si>
   <si>
@@ -1324,27 +1318,18 @@
     <t>ZRTTRANSQTY</t>
   </si>
   <si>
-    <t>3.80000000</t>
-  </si>
-  <si>
     <t>37604.0000</t>
   </si>
   <si>
     <t>02</t>
   </si>
   <si>
-    <t>19.040</t>
-  </si>
-  <si>
     <t>33933.8500</t>
   </si>
   <si>
     <t>0.902400</t>
   </si>
   <si>
-    <t>10.00000000</t>
-  </si>
-  <si>
     <t>38556.0000</t>
   </si>
   <si>
@@ -1354,9 +1339,6 @@
     <t>2225.0000</t>
   </si>
   <si>
-    <t>4.450</t>
-  </si>
-  <si>
     <t>2007.8400</t>
   </si>
   <si>
@@ -1384,157 +1366,10 @@
     <t>OTHERFEE4</t>
   </si>
   <si>
-    <t>30002111</t>
-  </si>
-  <si>
-    <t>20221214223318</t>
-  </si>
-  <si>
     <t>CCB1</t>
   </si>
   <si>
-    <t>20221214000000</t>
-  </si>
-  <si>
-    <t>969117691.610</t>
-  </si>
-  <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>000007096004</t>
-  </si>
-  <si>
-    <t>30002113</t>
-  </si>
-  <si>
-    <t>000007096006</t>
-  </si>
-  <si>
-    <t>30002115</t>
-  </si>
-  <si>
-    <t>000007096008</t>
-  </si>
-  <si>
-    <t>30002290</t>
-  </si>
-  <si>
-    <t>-238732200.130</t>
-  </si>
-  <si>
-    <t>000007096170</t>
-  </si>
-  <si>
-    <t>30002291</t>
-  </si>
-  <si>
-    <t>000007096171</t>
-  </si>
-  <si>
-    <t>30002292</t>
-  </si>
-  <si>
-    <t>000007096172</t>
-  </si>
-  <si>
-    <t>30002293</t>
-  </si>
-  <si>
-    <t>000007096173</t>
-  </si>
-  <si>
-    <t>30002286</t>
-  </si>
-  <si>
-    <t>000007096166</t>
-  </si>
-  <si>
-    <t>30002287</t>
-  </si>
-  <si>
-    <t>000007096167</t>
-  </si>
-  <si>
-    <t>30002288</t>
-  </si>
-  <si>
-    <t>000007096168</t>
-  </si>
-  <si>
-    <t>30002289</t>
-  </si>
-  <si>
-    <t>000007096169</t>
-  </si>
-  <si>
-    <t>30002107</t>
-  </si>
-  <si>
-    <t>1030091209.090</t>
-  </si>
-  <si>
-    <t>000007096000</t>
-  </si>
-  <si>
-    <t>30002108</t>
-  </si>
-  <si>
-    <t>000007096001</t>
-  </si>
-  <si>
-    <t>30002109</t>
-  </si>
-  <si>
-    <t>000007096002</t>
-  </si>
-  <si>
-    <t>30002110</t>
-  </si>
-  <si>
-    <t>000007096003</t>
-  </si>
-  <si>
-    <t>30002112</t>
-  </si>
-  <si>
-    <t>000007096005</t>
-  </si>
-  <si>
-    <t>30002114</t>
-  </si>
-  <si>
-    <t>000007096007</t>
-  </si>
-  <si>
-    <t>30002116</t>
-  </si>
-  <si>
-    <t>000007096009</t>
-  </si>
-  <si>
-    <t>30002117</t>
-  </si>
-  <si>
-    <t>000007096010</t>
-  </si>
-  <si>
-    <t>30002118</t>
-  </si>
-  <si>
-    <t>000007096011</t>
-  </si>
-  <si>
-    <t>30002119</t>
-  </si>
-  <si>
-    <t>000007096012</t>
-  </si>
-  <si>
-    <t>30002120</t>
-  </si>
-  <si>
-    <t>000007096013</t>
   </si>
   <si>
     <t>5</t>
@@ -1556,6 +1391,220 @@
       <t>CB1</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230207000000</t>
+  </si>
+  <si>
+    <t>0055555555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREDITSHAREGOINGQTY</t>
+  </si>
+  <si>
+    <t>CREDITUSABLEQTY</t>
+  </si>
+  <si>
+    <t>CREDITBUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>-4725.000</t>
+  </si>
+  <si>
+    <t>4.4500</t>
+  </si>
+  <si>
+    <t>-2007.840</t>
+  </si>
+  <si>
+    <t>4.17170732</t>
+  </si>
+  <si>
+    <t>-1740.878</t>
+  </si>
+  <si>
+    <t>19.0400</t>
+  </si>
+  <si>
+    <t>0.41906576</t>
+  </si>
+  <si>
+    <t>-1320.057</t>
+  </si>
+  <si>
+    <t>10.32674699</t>
+  </si>
+  <si>
+    <t>-1468.337</t>
+  </si>
+  <si>
+    <t>0.62102516</t>
+  </si>
+  <si>
+    <t>-890.136</t>
+  </si>
+  <si>
+    <t>4.45000000</t>
+  </si>
+  <si>
+    <t>4.01568000</t>
+  </si>
+  <si>
+    <t>1339260494.320</t>
+  </si>
+  <si>
+    <t>30002231</t>
+  </si>
+  <si>
+    <t>20230207235959</t>
+  </si>
+  <si>
+    <t>20230208083221</t>
+  </si>
+  <si>
+    <t>000007123188</t>
+  </si>
+  <si>
+    <t>30002232</t>
+  </si>
+  <si>
+    <t>000007123189</t>
+  </si>
+  <si>
+    <t>30002233</t>
+  </si>
+  <si>
+    <t>000007123190</t>
+  </si>
+  <si>
+    <t>30002234</t>
+  </si>
+  <si>
+    <t>000007123191</t>
+  </si>
+  <si>
+    <t>30002235</t>
+  </si>
+  <si>
+    <t>694428979.510</t>
+  </si>
+  <si>
+    <t>000007123192</t>
+  </si>
+  <si>
+    <t>30002236</t>
+  </si>
+  <si>
+    <t>000007123193</t>
+  </si>
+  <si>
+    <t>30002237</t>
+  </si>
+  <si>
+    <t>000007123194</t>
+  </si>
+  <si>
+    <t>30002238</t>
+  </si>
+  <si>
+    <t>000007123195</t>
+  </si>
+  <si>
+    <t>30002239</t>
+  </si>
+  <si>
+    <t>000007123196</t>
+  </si>
+  <si>
+    <t>30002240</t>
+  </si>
+  <si>
+    <t>000007123197</t>
+  </si>
+  <si>
+    <t>30002241</t>
+  </si>
+  <si>
+    <t>000007123198</t>
+  </si>
+  <si>
+    <t>30002242</t>
+  </si>
+  <si>
+    <t>000007123199</t>
+  </si>
+  <si>
+    <t>30002243</t>
+  </si>
+  <si>
+    <t>000007123200</t>
+  </si>
+  <si>
+    <t>30002244</t>
+  </si>
+  <si>
+    <t>000007123201</t>
+  </si>
+  <si>
+    <t>30002384</t>
+  </si>
+  <si>
+    <t>20230208083222</t>
+  </si>
+  <si>
+    <t>-587683012.940</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>000007123333</t>
+  </si>
+  <si>
+    <t>30002385</t>
+  </si>
+  <si>
+    <t>000007123334</t>
+  </si>
+  <si>
+    <t>30002386</t>
+  </si>
+  <si>
+    <t>000007123335</t>
+  </si>
+  <si>
+    <t>30002387</t>
+  </si>
+  <si>
+    <t>000007123336</t>
+  </si>
+  <si>
+    <t>30002439</t>
+  </si>
+  <si>
+    <t>-586810509.940</t>
+  </si>
+  <si>
+    <t>000007123392</t>
+  </si>
+  <si>
+    <t>30002440</t>
+  </si>
+  <si>
+    <t>000007123393</t>
+  </si>
+  <si>
+    <t>30002441</t>
+  </si>
+  <si>
+    <t>000007123394</t>
+  </si>
+  <si>
+    <t>30002442</t>
+  </si>
+  <si>
+    <t>000007123395</t>
   </si>
 </sst>
 </file>
@@ -1932,70 +1981,70 @@
   <dimension ref="A1:BM348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="1" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="20.88671875" customWidth="1"/>
+    <col min="17" max="17" width="20.875" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" customWidth="1"/>
-    <col min="22" max="23" width="11.88671875" customWidth="1"/>
-    <col min="24" max="24" width="10.77734375" customWidth="1"/>
-    <col min="25" max="25" width="11.88671875" customWidth="1"/>
-    <col min="26" max="26" width="18.6640625" customWidth="1"/>
-    <col min="27" max="27" width="9.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="7.625" customWidth="1"/>
+    <col min="22" max="23" width="11.875" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="25" max="25" width="11.875" customWidth="1"/>
+    <col min="26" max="26" width="18.625" customWidth="1"/>
+    <col min="27" max="27" width="9.625" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="8.6640625" customWidth="1"/>
-    <col min="30" max="30" width="11.88671875" customWidth="1"/>
-    <col min="31" max="31" width="14.109375" customWidth="1"/>
-    <col min="32" max="32" width="7.6640625" customWidth="1"/>
-    <col min="33" max="33" width="9.6640625" customWidth="1"/>
+    <col min="29" max="29" width="8.625" customWidth="1"/>
+    <col min="30" max="30" width="11.875" customWidth="1"/>
+    <col min="31" max="31" width="14.125" customWidth="1"/>
+    <col min="32" max="32" width="7.625" customWidth="1"/>
+    <col min="33" max="33" width="9.625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.109375" customWidth="1"/>
-    <col min="36" max="39" width="10.77734375" customWidth="1"/>
-    <col min="40" max="40" width="11.88671875" customWidth="1"/>
-    <col min="41" max="41" width="16.44140625" customWidth="1"/>
-    <col min="42" max="43" width="11.88671875" customWidth="1"/>
-    <col min="44" max="44" width="14.109375" customWidth="1"/>
-    <col min="45" max="45" width="16.44140625" customWidth="1"/>
-    <col min="46" max="46" width="14.109375" customWidth="1"/>
-    <col min="47" max="48" width="11.88671875" customWidth="1"/>
-    <col min="49" max="49" width="5.6640625" customWidth="1"/>
-    <col min="50" max="50" width="6.6640625" customWidth="1"/>
-    <col min="51" max="52" width="14.109375" customWidth="1"/>
-    <col min="53" max="53" width="8.6640625" customWidth="1"/>
-    <col min="54" max="54" width="15.21875" customWidth="1"/>
-    <col min="55" max="55" width="14.109375" customWidth="1"/>
-    <col min="56" max="56" width="20.88671875" customWidth="1"/>
+    <col min="35" max="35" width="14.125" customWidth="1"/>
+    <col min="36" max="39" width="10.75" customWidth="1"/>
+    <col min="40" max="40" width="11.875" customWidth="1"/>
+    <col min="41" max="41" width="16.5" customWidth="1"/>
+    <col min="42" max="43" width="11.875" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="16.5" customWidth="1"/>
+    <col min="46" max="46" width="14.125" customWidth="1"/>
+    <col min="47" max="48" width="11.875" customWidth="1"/>
+    <col min="49" max="49" width="5.625" customWidth="1"/>
+    <col min="50" max="50" width="6.625" customWidth="1"/>
+    <col min="51" max="52" width="14.125" customWidth="1"/>
+    <col min="53" max="53" width="8.625" customWidth="1"/>
+    <col min="54" max="54" width="15.25" customWidth="1"/>
+    <col min="55" max="55" width="14.125" customWidth="1"/>
+    <col min="56" max="56" width="20.875" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.109375" customWidth="1"/>
-    <col min="59" max="59" width="15.21875" customWidth="1"/>
-    <col min="60" max="60" width="10.77734375" customWidth="1"/>
-    <col min="61" max="61" width="5.6640625" customWidth="1"/>
-    <col min="62" max="62" width="10.77734375" customWidth="1"/>
-    <col min="63" max="63" width="9.6640625" customWidth="1"/>
-    <col min="64" max="64" width="11.88671875" customWidth="1"/>
+    <col min="58" max="58" width="14.125" customWidth="1"/>
+    <col min="59" max="59" width="15.25" customWidth="1"/>
+    <col min="60" max="60" width="10.75" customWidth="1"/>
+    <col min="61" max="61" width="5.625" customWidth="1"/>
+    <col min="62" max="62" width="10.75" customWidth="1"/>
+    <col min="63" max="63" width="9.625" customWidth="1"/>
+    <col min="64" max="64" width="11.875" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2192,7 +2241,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -2350,7 +2399,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -2508,7 +2557,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -2666,7 +2715,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -2818,7 +2867,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -2976,7 +3025,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -3134,7 +3183,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -3292,7 +3341,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
@@ -3444,7 +3493,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -3596,7 +3645,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
@@ -3748,7 +3797,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -3906,7 +3955,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,7 +4113,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -4222,7 +4271,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -4380,7 +4429,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -4538,7 +4587,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -4696,7 +4745,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -4848,7 +4897,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -5000,7 +5049,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -5158,7 +5207,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,7 +5365,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -5462,7 +5511,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -5608,7 +5657,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -5754,7 +5803,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -5900,7 +5949,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
@@ -6055,7 +6104,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -6210,7 +6259,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -6365,7 +6414,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -6520,7 +6569,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -6672,7 +6721,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -6824,7 +6873,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -6982,7 +7031,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -7140,7 +7189,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -7298,7 +7347,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
@@ -7456,7 +7505,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -7614,7 +7663,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -7772,7 +7821,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
@@ -7909,316 +7958,316 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:BM38"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8232,140 +8281,139 @@
   <dimension ref="A1:EI35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" customWidth="1"/>
-    <col min="22" max="22" width="11.88671875" customWidth="1"/>
-    <col min="23" max="23" width="16.44140625" customWidth="1"/>
-    <col min="24" max="24" width="14.109375" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" customWidth="1"/>
-    <col min="26" max="26" width="14.109375" customWidth="1"/>
-    <col min="27" max="27" width="8.6640625" customWidth="1"/>
-    <col min="28" max="28" width="9.6640625" customWidth="1"/>
-    <col min="29" max="29" width="23.109375" customWidth="1"/>
-    <col min="30" max="30" width="10.77734375" customWidth="1"/>
-    <col min="31" max="31" width="15.21875" customWidth="1"/>
-    <col min="32" max="33" width="14.109375" customWidth="1"/>
-    <col min="34" max="35" width="13" customWidth="1"/>
-    <col min="36" max="36" width="9.6640625" customWidth="1"/>
-    <col min="37" max="37" width="13" customWidth="1"/>
-    <col min="38" max="38" width="10.77734375" customWidth="1"/>
-    <col min="39" max="39" width="14.109375" customWidth="1"/>
-    <col min="40" max="40" width="11.88671875" customWidth="1"/>
-    <col min="41" max="42" width="9.6640625" customWidth="1"/>
-    <col min="43" max="43" width="14.109375" customWidth="1"/>
-    <col min="44" max="44" width="16.44140625" customWidth="1"/>
-    <col min="45" max="45" width="9.6640625" customWidth="1"/>
-    <col min="46" max="46" width="13" customWidth="1"/>
-    <col min="47" max="47" width="14.109375" customWidth="1"/>
-    <col min="48" max="48" width="8.6640625" customWidth="1"/>
-    <col min="49" max="49" width="17.5546875" customWidth="1"/>
-    <col min="50" max="50" width="11.88671875" customWidth="1"/>
-    <col min="51" max="51" width="8.6640625" customWidth="1"/>
-    <col min="52" max="52" width="9.6640625" customWidth="1"/>
-    <col min="53" max="53" width="13" customWidth="1"/>
-    <col min="54" max="54" width="16.44140625" customWidth="1"/>
-    <col min="55" max="56" width="13" customWidth="1"/>
-    <col min="57" max="57" width="16.44140625" customWidth="1"/>
-    <col min="58" max="58" width="15.21875" customWidth="1"/>
-    <col min="59" max="59" width="7.6640625" customWidth="1"/>
-    <col min="60" max="60" width="17.5546875" customWidth="1"/>
-    <col min="61" max="61" width="14.109375" customWidth="1"/>
-    <col min="62" max="62" width="11.88671875" customWidth="1"/>
-    <col min="63" max="63" width="8.6640625" customWidth="1"/>
-    <col min="64" max="64" width="14.109375" customWidth="1"/>
-    <col min="65" max="65" width="9.6640625" customWidth="1"/>
-    <col min="66" max="66" width="17.5546875" customWidth="1"/>
-    <col min="67" max="67" width="10.77734375" customWidth="1"/>
-    <col min="68" max="68" width="11.88671875" customWidth="1"/>
-    <col min="69" max="69" width="13" customWidth="1"/>
-    <col min="70" max="70" width="11.88671875" customWidth="1"/>
-    <col min="71" max="71" width="15.21875" customWidth="1"/>
-    <col min="72" max="72" width="11.88671875" customWidth="1"/>
-    <col min="73" max="73" width="13" customWidth="1"/>
-    <col min="74" max="74" width="17.5546875" customWidth="1"/>
-    <col min="75" max="75" width="20.88671875" customWidth="1"/>
-    <col min="76" max="76" width="16.44140625" customWidth="1"/>
-    <col min="77" max="77" width="13" customWidth="1"/>
-    <col min="78" max="78" width="11.88671875" customWidth="1"/>
-    <col min="79" max="79" width="10.77734375" customWidth="1"/>
-    <col min="80" max="80" width="11.88671875" customWidth="1"/>
-    <col min="81" max="82" width="7.6640625" customWidth="1"/>
-    <col min="83" max="84" width="17.5546875" customWidth="1"/>
-    <col min="85" max="85" width="16.44140625" customWidth="1"/>
-    <col min="86" max="86" width="11.88671875" customWidth="1"/>
-    <col min="87" max="87" width="14.109375" customWidth="1"/>
-    <col min="88" max="88" width="16.44140625" customWidth="1"/>
-    <col min="89" max="89" width="10.77734375" customWidth="1"/>
-    <col min="90" max="90" width="11.88671875" customWidth="1"/>
-    <col min="91" max="91" width="19.77734375" customWidth="1"/>
-    <col min="92" max="92" width="16.44140625" customWidth="1"/>
-    <col min="93" max="93" width="23.109375" customWidth="1"/>
-    <col min="94" max="94" width="7.6640625" customWidth="1"/>
-    <col min="95" max="95" width="18.6640625" customWidth="1"/>
-    <col min="96" max="96" width="10.77734375" customWidth="1"/>
-    <col min="97" max="97" width="14.109375" customWidth="1"/>
-    <col min="98" max="98" width="13" customWidth="1"/>
-    <col min="99" max="99" width="16.44140625" customWidth="1"/>
-    <col min="100" max="101" width="13" customWidth="1"/>
-    <col min="102" max="102" width="9.6640625" customWidth="1"/>
-    <col min="103" max="103" width="16.44140625" customWidth="1"/>
-    <col min="104" max="104" width="14.109375" customWidth="1"/>
-    <col min="105" max="105" width="11.88671875" customWidth="1"/>
-    <col min="106" max="107" width="15.21875" customWidth="1"/>
-    <col min="108" max="108" width="9.6640625" customWidth="1"/>
-    <col min="109" max="109" width="13" customWidth="1"/>
-    <col min="110" max="110" width="9.6640625" customWidth="1"/>
-    <col min="111" max="111" width="15.21875" customWidth="1"/>
-    <col min="112" max="112" width="17.5546875" customWidth="1"/>
-    <col min="113" max="113" width="14.109375" customWidth="1"/>
-    <col min="114" max="114" width="19.77734375" customWidth="1"/>
-    <col min="115" max="115" width="16.44140625" customWidth="1"/>
-    <col min="116" max="116" width="20.88671875" customWidth="1"/>
-    <col min="117" max="117" width="24.21875" customWidth="1"/>
-    <col min="118" max="118" width="16.44140625" customWidth="1"/>
-    <col min="119" max="119" width="17.5546875" customWidth="1"/>
-    <col min="120" max="120" width="22" customWidth="1"/>
-    <col min="121" max="122" width="20.88671875" customWidth="1"/>
-    <col min="123" max="123" width="19.77734375" customWidth="1"/>
-    <col min="124" max="124" width="17.5546875" customWidth="1"/>
-    <col min="125" max="125" width="20.88671875" customWidth="1"/>
-    <col min="126" max="126" width="18.6640625" customWidth="1"/>
-    <col min="127" max="127" width="8.6640625" customWidth="1"/>
-    <col min="128" max="128" width="15.21875" customWidth="1"/>
-    <col min="129" max="129" width="13" customWidth="1"/>
-    <col min="130" max="130" width="14.109375" customWidth="1"/>
-    <col min="131" max="131" width="10.77734375" customWidth="1"/>
-    <col min="132" max="132" width="11.88671875" customWidth="1"/>
-    <col min="133" max="133" width="15.21875" customWidth="1"/>
-    <col min="134" max="134" width="16.44140625" customWidth="1"/>
-    <col min="135" max="135" width="14.109375" customWidth="1"/>
-    <col min="136" max="136" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="6.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="6.625" customWidth="1"/>
+    <col min="18" max="18" width="7.625" customWidth="1"/>
+    <col min="19" max="19" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="9.625" customWidth="1"/>
+    <col min="21" max="21" width="11.875" customWidth="1"/>
+    <col min="22" max="22" width="16.5" customWidth="1"/>
+    <col min="23" max="23" width="14.125" customWidth="1"/>
+    <col min="24" max="24" width="9.625" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="26" max="26" width="8.625" customWidth="1"/>
+    <col min="27" max="27" width="9.625" customWidth="1"/>
+    <col min="28" max="28" width="23.125" customWidth="1"/>
+    <col min="29" max="29" width="10.75" customWidth="1"/>
+    <col min="30" max="30" width="15.25" customWidth="1"/>
+    <col min="31" max="32" width="14.125" customWidth="1"/>
+    <col min="33" max="34" width="13" customWidth="1"/>
+    <col min="35" max="35" width="9.625" customWidth="1"/>
+    <col min="36" max="36" width="13" customWidth="1"/>
+    <col min="37" max="37" width="10.75" customWidth="1"/>
+    <col min="38" max="38" width="14.125" customWidth="1"/>
+    <col min="39" max="39" width="11.875" customWidth="1"/>
+    <col min="40" max="41" width="9.625" customWidth="1"/>
+    <col min="42" max="42" width="14.125" customWidth="1"/>
+    <col min="43" max="43" width="16.5" customWidth="1"/>
+    <col min="44" max="44" width="9.625" customWidth="1"/>
+    <col min="45" max="45" width="13" customWidth="1"/>
+    <col min="46" max="46" width="14.125" customWidth="1"/>
+    <col min="47" max="47" width="8.625" customWidth="1"/>
+    <col min="48" max="48" width="17.5" customWidth="1"/>
+    <col min="49" max="49" width="11.875" customWidth="1"/>
+    <col min="50" max="50" width="8.625" customWidth="1"/>
+    <col min="51" max="51" width="9.625" customWidth="1"/>
+    <col min="52" max="52" width="13" customWidth="1"/>
+    <col min="53" max="53" width="16.5" customWidth="1"/>
+    <col min="54" max="55" width="13" customWidth="1"/>
+    <col min="56" max="56" width="16.5" customWidth="1"/>
+    <col min="57" max="57" width="15.25" customWidth="1"/>
+    <col min="58" max="58" width="7.625" customWidth="1"/>
+    <col min="59" max="59" width="17.5" customWidth="1"/>
+    <col min="60" max="60" width="14.125" customWidth="1"/>
+    <col min="61" max="61" width="11.875" customWidth="1"/>
+    <col min="62" max="62" width="8.625" customWidth="1"/>
+    <col min="63" max="63" width="14.125" customWidth="1"/>
+    <col min="64" max="64" width="9.625" customWidth="1"/>
+    <col min="65" max="65" width="17.5" customWidth="1"/>
+    <col min="66" max="66" width="10.75" customWidth="1"/>
+    <col min="67" max="67" width="11.875" customWidth="1"/>
+    <col min="68" max="68" width="13" customWidth="1"/>
+    <col min="69" max="69" width="11.875" customWidth="1"/>
+    <col min="70" max="70" width="15.25" customWidth="1"/>
+    <col min="71" max="71" width="11.875" customWidth="1"/>
+    <col min="72" max="72" width="13" customWidth="1"/>
+    <col min="73" max="73" width="17.5" customWidth="1"/>
+    <col min="74" max="74" width="20.875" customWidth="1"/>
+    <col min="75" max="75" width="16.5" customWidth="1"/>
+    <col min="76" max="76" width="13" customWidth="1"/>
+    <col min="77" max="77" width="11.875" customWidth="1"/>
+    <col min="78" max="78" width="10.75" customWidth="1"/>
+    <col min="79" max="79" width="11.875" customWidth="1"/>
+    <col min="80" max="81" width="7.625" customWidth="1"/>
+    <col min="82" max="83" width="17.5" customWidth="1"/>
+    <col min="84" max="84" width="16.5" customWidth="1"/>
+    <col min="85" max="85" width="11.875" customWidth="1"/>
+    <col min="86" max="86" width="14.125" customWidth="1"/>
+    <col min="87" max="87" width="16.5" customWidth="1"/>
+    <col min="88" max="88" width="10.75" customWidth="1"/>
+    <col min="89" max="89" width="11.875" customWidth="1"/>
+    <col min="90" max="90" width="19.75" customWidth="1"/>
+    <col min="91" max="91" width="16.5" customWidth="1"/>
+    <col min="92" max="92" width="23.125" customWidth="1"/>
+    <col min="93" max="93" width="7.625" customWidth="1"/>
+    <col min="94" max="94" width="18.625" customWidth="1"/>
+    <col min="95" max="95" width="10.75" customWidth="1"/>
+    <col min="96" max="96" width="14.125" customWidth="1"/>
+    <col min="97" max="97" width="13" customWidth="1"/>
+    <col min="98" max="98" width="16.5" customWidth="1"/>
+    <col min="99" max="100" width="13" customWidth="1"/>
+    <col min="101" max="101" width="9.625" customWidth="1"/>
+    <col min="102" max="102" width="16.5" customWidth="1"/>
+    <col min="103" max="103" width="14.125" customWidth="1"/>
+    <col min="104" max="104" width="11.875" customWidth="1"/>
+    <col min="105" max="106" width="15.25" customWidth="1"/>
+    <col min="107" max="107" width="9.625" customWidth="1"/>
+    <col min="108" max="108" width="13" customWidth="1"/>
+    <col min="109" max="109" width="9.625" customWidth="1"/>
+    <col min="110" max="110" width="15.25" customWidth="1"/>
+    <col min="111" max="111" width="17.5" customWidth="1"/>
+    <col min="112" max="112" width="14.125" customWidth="1"/>
+    <col min="113" max="113" width="19.75" customWidth="1"/>
+    <col min="114" max="114" width="16.5" customWidth="1"/>
+    <col min="115" max="115" width="20.875" customWidth="1"/>
+    <col min="116" max="116" width="24.25" customWidth="1"/>
+    <col min="117" max="117" width="16.5" customWidth="1"/>
+    <col min="118" max="118" width="17.5" customWidth="1"/>
+    <col min="119" max="119" width="22" customWidth="1"/>
+    <col min="120" max="121" width="20.875" customWidth="1"/>
+    <col min="122" max="122" width="19.75" customWidth="1"/>
+    <col min="123" max="123" width="17.5" customWidth="1"/>
+    <col min="124" max="124" width="20.875" customWidth="1"/>
+    <col min="125" max="125" width="18.625" customWidth="1"/>
+    <col min="126" max="126" width="8.625" customWidth="1"/>
+    <col min="127" max="127" width="15.25" customWidth="1"/>
+    <col min="128" max="128" width="13" customWidth="1"/>
+    <col min="129" max="129" width="14.125" customWidth="1"/>
+    <col min="130" max="130" width="10.75" customWidth="1"/>
+    <col min="131" max="131" width="11.875" customWidth="1"/>
+    <col min="132" max="132" width="15.25" customWidth="1"/>
+    <col min="133" max="133" width="16.5" customWidth="1"/>
+    <col min="134" max="134" width="14.125" customWidth="1"/>
+    <col min="135" max="135" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8781,48 +8829,51 @@
         <v>30</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>308</v>
@@ -8840,16 +8891,16 @@
         <v>73</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>72</v>
@@ -8858,10 +8909,10 @@
         <v>72</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>72</v>
@@ -8909,10 +8960,10 @@
         <v>308</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>312</v>
@@ -8921,7 +8972,7 @@
         <v>306</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>88</v>
@@ -8948,7 +8999,7 @@
         <v>76</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>75</v>
@@ -8993,7 +9044,7 @@
         <v>80</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>72</v>
@@ -9011,13 +9062,13 @@
         <v>76</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>315</v>
@@ -9113,45 +9164,48 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>308</v>
@@ -9169,16 +9223,16 @@
         <v>73</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>72</v>
@@ -9187,10 +9241,10 @@
         <v>72</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>72</v>
@@ -9238,10 +9292,10 @@
         <v>308</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>312</v>
@@ -9250,7 +9304,7 @@
         <v>306</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>88</v>
@@ -9277,7 +9331,7 @@
         <v>76</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>75</v>
@@ -9322,7 +9376,7 @@
         <v>80</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>72</v>
@@ -9340,13 +9394,13 @@
         <v>76</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>315</v>
@@ -9442,45 +9496,48 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>308</v>
@@ -9498,16 +9555,16 @@
         <v>73</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>72</v>
@@ -9516,10 +9573,10 @@
         <v>72</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>72</v>
@@ -9567,10 +9624,10 @@
         <v>308</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>312</v>
@@ -9579,7 +9636,7 @@
         <v>306</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>88</v>
@@ -9606,7 +9663,7 @@
         <v>76</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="BI4" s="1" t="s">
         <v>75</v>
@@ -9651,7 +9708,7 @@
         <v>80</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>72</v>
@@ -9669,13 +9726,13 @@
         <v>76</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>315</v>
@@ -9771,42 +9828,42 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>70</v>
@@ -9830,16 +9887,16 @@
         <v>73</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>72</v>
@@ -9848,10 +9905,10 @@
         <v>72</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>72</v>
@@ -9899,10 +9956,10 @@
         <v>308</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="AT5" s="1" t="s">
         <v>312</v>
@@ -9911,7 +9968,7 @@
         <v>306</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>88</v>
@@ -9938,7 +9995,7 @@
         <v>76</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="BI5" s="1" t="s">
         <v>75</v>
@@ -9953,7 +10010,7 @@
         <v>76</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>92</v>
@@ -9983,7 +10040,7 @@
         <v>80</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>72</v>
@@ -10001,13 +10058,13 @@
         <v>76</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>315</v>
@@ -10103,48 +10160,45 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>308</v>
@@ -10162,16 +10216,16 @@
         <v>73</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>72</v>
@@ -10180,10 +10234,10 @@
         <v>72</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>72</v>
@@ -10231,10 +10285,10 @@
         <v>308</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="AT6" s="1" t="s">
         <v>312</v>
@@ -10243,7 +10297,7 @@
         <v>306</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AX6" s="1" t="s">
         <v>88</v>
@@ -10270,7 +10324,7 @@
         <v>76</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="BI6" s="1" t="s">
         <v>75</v>
@@ -10285,7 +10339,7 @@
         <v>76</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="BP6" s="1" t="s">
         <v>92</v>
@@ -10315,7 +10369,7 @@
         <v>80</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>72</v>
@@ -10333,13 +10387,13 @@
         <v>76</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>315</v>
@@ -10435,48 +10489,45 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>308</v>
@@ -10494,16 +10545,16 @@
         <v>73</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>72</v>
@@ -10512,10 +10563,10 @@
         <v>72</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>310</v>
+        <v>162</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>72</v>
@@ -10563,10 +10614,10 @@
         <v>308</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="AT7" s="1" t="s">
         <v>312</v>
@@ -10575,7 +10626,7 @@
         <v>306</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AX7" s="1" t="s">
         <v>88</v>
@@ -10602,7 +10653,7 @@
         <v>76</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="BI7" s="1" t="s">
         <v>75</v>
@@ -10617,7 +10668,7 @@
         <v>76</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="BP7" s="1" t="s">
         <v>92</v>
@@ -10647,7 +10698,7 @@
         <v>80</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>72</v>
@@ -10665,13 +10716,13 @@
         <v>76</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK7" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL7" s="1" t="s">
         <v>315</v>
@@ -10767,9 +10818,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>320</v>
@@ -10778,37 +10829,34 @@
         <v>303</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>308</v>
@@ -10826,16 +10874,16 @@
         <v>73</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>72</v>
@@ -10844,10 +10892,10 @@
         <v>72</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>72</v>
@@ -10895,10 +10943,10 @@
         <v>308</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="AT8" s="1" t="s">
         <v>312</v>
@@ -10907,7 +10955,7 @@
         <v>306</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AX8" s="1" t="s">
         <v>88</v>
@@ -10934,7 +10982,7 @@
         <v>76</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="BI8" s="1" t="s">
         <v>75</v>
@@ -10949,7 +10997,7 @@
         <v>76</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="BP8" s="1" t="s">
         <v>92</v>
@@ -10979,7 +11027,7 @@
         <v>80</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA8" s="1" t="s">
         <v>72</v>
@@ -10997,13 +11045,13 @@
         <v>76</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="CJ8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK8" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL8" s="1" t="s">
         <v>315</v>
@@ -11099,48 +11147,45 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>308</v>
@@ -11158,16 +11203,16 @@
         <v>73</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>72</v>
@@ -11176,10 +11221,10 @@
         <v>72</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>321</v>
+        <v>162</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>72</v>
@@ -11227,10 +11272,10 @@
         <v>308</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="AT9" s="1" t="s">
         <v>312</v>
@@ -11239,7 +11284,7 @@
         <v>306</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AX9" s="1" t="s">
         <v>88</v>
@@ -11266,7 +11311,7 @@
         <v>76</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="BI9" s="1" t="s">
         <v>75</v>
@@ -11281,7 +11326,7 @@
         <v>76</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="BP9" s="1" t="s">
         <v>92</v>
@@ -11311,7 +11356,7 @@
         <v>80</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA9" s="1" t="s">
         <v>72</v>
@@ -11329,13 +11374,13 @@
         <v>76</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="CJ9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK9" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL9" s="1" t="s">
         <v>315</v>
@@ -11431,9 +11476,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>320</v>
@@ -11442,37 +11487,34 @@
         <v>303</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>308</v>
@@ -11490,16 +11532,16 @@
         <v>73</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>72</v>
@@ -11508,10 +11550,10 @@
         <v>72</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>72</v>
@@ -11559,10 +11601,10 @@
         <v>308</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="AT10" s="1" t="s">
         <v>312</v>
@@ -11571,7 +11613,7 @@
         <v>306</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AX10" s="1" t="s">
         <v>88</v>
@@ -11613,7 +11655,7 @@
         <v>76</v>
       </c>
       <c r="BN10" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="BP10" s="1" t="s">
         <v>92</v>
@@ -11643,7 +11685,7 @@
         <v>80</v>
       </c>
       <c r="BZ10" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA10" s="1" t="s">
         <v>72</v>
@@ -11661,13 +11703,13 @@
         <v>76</v>
       </c>
       <c r="CH10" s="1" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="CJ10" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK10" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL10" s="1" t="s">
         <v>315</v>
@@ -11763,48 +11805,45 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>308</v>
@@ -11822,16 +11861,16 @@
         <v>73</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>72</v>
@@ -11840,10 +11879,10 @@
         <v>72</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>321</v>
+        <v>162</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>72</v>
@@ -11891,10 +11930,10 @@
         <v>308</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="AT11" s="1" t="s">
         <v>312</v>
@@ -11903,7 +11942,7 @@
         <v>306</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AX11" s="1" t="s">
         <v>88</v>
@@ -11930,7 +11969,7 @@
         <v>76</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="BI11" s="1" t="s">
         <v>75</v>
@@ -11945,7 +11984,7 @@
         <v>76</v>
       </c>
       <c r="BN11" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="BP11" s="1" t="s">
         <v>92</v>
@@ -11975,7 +12014,7 @@
         <v>80</v>
       </c>
       <c r="BZ11" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA11" s="1" t="s">
         <v>72</v>
@@ -11993,13 +12032,13 @@
         <v>76</v>
       </c>
       <c r="CH11" s="1" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="CJ11" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK11" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL11" s="1" t="s">
         <v>315</v>
@@ -12095,42 +12134,42 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>70</v>
@@ -12154,16 +12193,16 @@
         <v>73</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>72</v>
@@ -12172,10 +12211,10 @@
         <v>72</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>72</v>
@@ -12223,10 +12262,10 @@
         <v>308</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="AT12" s="1" t="s">
         <v>312</v>
@@ -12235,7 +12274,7 @@
         <v>306</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AX12" s="1" t="s">
         <v>88</v>
@@ -12262,7 +12301,7 @@
         <v>76</v>
       </c>
       <c r="BH12" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="BI12" s="1" t="s">
         <v>75</v>
@@ -12277,7 +12316,7 @@
         <v>76</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="BP12" s="1" t="s">
         <v>92</v>
@@ -12307,7 +12346,7 @@
         <v>80</v>
       </c>
       <c r="BZ12" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA12" s="1" t="s">
         <v>72</v>
@@ -12325,13 +12364,13 @@
         <v>76</v>
       </c>
       <c r="CH12" s="1" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="CJ12" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK12" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL12" s="1" t="s">
         <v>315</v>
@@ -12427,36 +12466,36 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>306</v>
@@ -12486,16 +12525,16 @@
         <v>73</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>72</v>
@@ -12504,10 +12543,10 @@
         <v>72</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>72</v>
@@ -12555,10 +12594,10 @@
         <v>308</v>
       </c>
       <c r="AR13" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AS13" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="AS13" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="AT13" s="1" t="s">
         <v>312</v>
@@ -12567,7 +12606,7 @@
         <v>306</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AX13" s="1" t="s">
         <v>88</v>
@@ -12594,7 +12633,7 @@
         <v>76</v>
       </c>
       <c r="BH13" s="1" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="BI13" s="1" t="s">
         <v>75</v>
@@ -12639,7 +12678,7 @@
         <v>80</v>
       </c>
       <c r="BZ13" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA13" s="1" t="s">
         <v>72</v>
@@ -12657,13 +12696,13 @@
         <v>76</v>
       </c>
       <c r="CH13" s="1" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="CJ13" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK13" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL13" s="1" t="s">
         <v>315</v>
@@ -12759,9 +12798,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>319</v>
@@ -12770,25 +12809,25 @@
         <v>303</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>306</v>
@@ -12818,16 +12857,16 @@
         <v>73</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>72</v>
@@ -12836,10 +12875,10 @@
         <v>72</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>72</v>
@@ -12887,10 +12926,10 @@
         <v>308</v>
       </c>
       <c r="AR14" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AS14" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="AS14" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="AT14" s="1" t="s">
         <v>312</v>
@@ -12899,7 +12938,7 @@
         <v>306</v>
       </c>
       <c r="AV14" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AX14" s="1" t="s">
         <v>88</v>
@@ -12926,7 +12965,7 @@
         <v>76</v>
       </c>
       <c r="BH14" s="1" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="BI14" s="1" t="s">
         <v>75</v>
@@ -12971,7 +13010,7 @@
         <v>80</v>
       </c>
       <c r="BZ14" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA14" s="1" t="s">
         <v>72</v>
@@ -12989,13 +13028,13 @@
         <v>76</v>
       </c>
       <c r="CH14" s="1" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="CJ14" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK14" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL14" s="1" t="s">
         <v>315</v>
@@ -13091,9 +13130,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>319</v>
@@ -13102,25 +13141,25 @@
         <v>303</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>306</v>
@@ -13150,16 +13189,16 @@
         <v>73</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>72</v>
@@ -13168,10 +13207,10 @@
         <v>72</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>72</v>
@@ -13219,10 +13258,10 @@
         <v>308</v>
       </c>
       <c r="AR15" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AS15" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="AS15" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="AT15" s="1" t="s">
         <v>312</v>
@@ -13231,7 +13270,7 @@
         <v>306</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AX15" s="1" t="s">
         <v>88</v>
@@ -13258,7 +13297,7 @@
         <v>76</v>
       </c>
       <c r="BH15" s="1" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="BI15" s="1" t="s">
         <v>75</v>
@@ -13303,7 +13342,7 @@
         <v>80</v>
       </c>
       <c r="BZ15" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA15" s="1" t="s">
         <v>72</v>
@@ -13321,13 +13360,13 @@
         <v>76</v>
       </c>
       <c r="CH15" s="1" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="CJ15" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK15" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL15" s="1" t="s">
         <v>315</v>
@@ -13423,42 +13462,42 @@
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>70</v>
@@ -13482,16 +13521,16 @@
         <v>73</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>72</v>
@@ -13500,10 +13539,10 @@
         <v>72</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>325</v>
+        <v>503</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>72</v>
@@ -13551,10 +13590,10 @@
         <v>308</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="AT16" s="1" t="s">
         <v>312</v>
@@ -13563,7 +13602,7 @@
         <v>306</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AX16" s="1" t="s">
         <v>88</v>
@@ -13590,7 +13629,7 @@
         <v>76</v>
       </c>
       <c r="BH16" s="1" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="BI16" s="1" t="s">
         <v>75</v>
@@ -13605,7 +13644,7 @@
         <v>76</v>
       </c>
       <c r="BN16" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="BP16" s="1" t="s">
         <v>92</v>
@@ -13635,7 +13674,7 @@
         <v>80</v>
       </c>
       <c r="BZ16" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA16" s="1" t="s">
         <v>72</v>
@@ -13653,13 +13692,13 @@
         <v>76</v>
       </c>
       <c r="CH16" s="1" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="CJ16" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK16" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL16" s="1" t="s">
         <v>315</v>
@@ -13755,45 +13794,48 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="I17" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>308</v>
@@ -13811,16 +13853,16 @@
         <v>73</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>72</v>
@@ -13829,10 +13871,10 @@
         <v>72</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>162</v>
+        <v>503</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>72</v>
@@ -13880,10 +13922,10 @@
         <v>308</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="AT17" s="1" t="s">
         <v>312</v>
@@ -13892,7 +13934,7 @@
         <v>306</v>
       </c>
       <c r="AV17" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AX17" s="1" t="s">
         <v>88</v>
@@ -13919,7 +13961,7 @@
         <v>76</v>
       </c>
       <c r="BH17" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="BI17" s="1" t="s">
         <v>75</v>
@@ -13934,7 +13976,7 @@
         <v>76</v>
       </c>
       <c r="BN17" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="BP17" s="1" t="s">
         <v>92</v>
@@ -13964,7 +14006,7 @@
         <v>80</v>
       </c>
       <c r="BZ17" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA17" s="1" t="s">
         <v>72</v>
@@ -13982,13 +14024,13 @@
         <v>76</v>
       </c>
       <c r="CH17" s="1" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="CJ17" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK17" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL17" s="1" t="s">
         <v>315</v>
@@ -14084,45 +14126,48 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="I18" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>308</v>
@@ -14140,16 +14185,16 @@
         <v>73</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>72</v>
@@ -14158,10 +14203,10 @@
         <v>72</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>162</v>
+        <v>503</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>72</v>
@@ -14209,10 +14254,10 @@
         <v>308</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="AT18" s="1" t="s">
         <v>312</v>
@@ -14221,7 +14266,7 @@
         <v>306</v>
       </c>
       <c r="AV18" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AX18" s="1" t="s">
         <v>88</v>
@@ -14248,7 +14293,7 @@
         <v>76</v>
       </c>
       <c r="BH18" s="1" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="BI18" s="1" t="s">
         <v>75</v>
@@ -14263,7 +14308,7 @@
         <v>76</v>
       </c>
       <c r="BN18" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="BP18" s="1" t="s">
         <v>92</v>
@@ -14293,7 +14338,7 @@
         <v>80</v>
       </c>
       <c r="BZ18" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA18" s="1" t="s">
         <v>72</v>
@@ -14311,13 +14356,13 @@
         <v>76</v>
       </c>
       <c r="CH18" s="1" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="CJ18" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK18" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL18" s="1" t="s">
         <v>315</v>
@@ -14413,45 +14458,48 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>308</v>
@@ -14469,16 +14517,16 @@
         <v>73</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>72</v>
@@ -14487,10 +14535,10 @@
         <v>72</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>162</v>
+        <v>503</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>72</v>
@@ -14538,10 +14586,10 @@
         <v>308</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="AT19" s="1" t="s">
         <v>312</v>
@@ -14550,7 +14598,7 @@
         <v>306</v>
       </c>
       <c r="AV19" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AX19" s="1" t="s">
         <v>88</v>
@@ -14577,7 +14625,7 @@
         <v>76</v>
       </c>
       <c r="BH19" s="1" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="BI19" s="1" t="s">
         <v>75</v>
@@ -14592,7 +14640,7 @@
         <v>76</v>
       </c>
       <c r="BN19" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="BP19" s="1" t="s">
         <v>92</v>
@@ -14622,7 +14670,7 @@
         <v>80</v>
       </c>
       <c r="BZ19" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA19" s="1" t="s">
         <v>72</v>
@@ -14640,13 +14688,13 @@
         <v>76</v>
       </c>
       <c r="CH19" s="1" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="CJ19" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK19" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL19" s="1" t="s">
         <v>315</v>
@@ -14742,42 +14790,42 @@
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>70</v>
@@ -14801,16 +14849,16 @@
         <v>73</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>72</v>
@@ -14819,10 +14867,10 @@
         <v>72</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>72</v>
@@ -14870,10 +14918,10 @@
         <v>308</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="AT20" s="1" t="s">
         <v>312</v>
@@ -14882,7 +14930,7 @@
         <v>306</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AX20" s="1" t="s">
         <v>88</v>
@@ -14909,7 +14957,7 @@
         <v>76</v>
       </c>
       <c r="BH20" s="1" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="BI20" s="1" t="s">
         <v>75</v>
@@ -14924,7 +14972,7 @@
         <v>76</v>
       </c>
       <c r="BN20" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="BP20" s="1" t="s">
         <v>92</v>
@@ -14954,7 +15002,7 @@
         <v>80</v>
       </c>
       <c r="BZ20" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA20" s="1" t="s">
         <v>72</v>
@@ -14972,13 +15020,13 @@
         <v>76</v>
       </c>
       <c r="CH20" s="1" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="CJ20" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK20" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL20" s="1" t="s">
         <v>315</v>
@@ -15074,9 +15122,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>320</v>
@@ -15085,31 +15133,31 @@
         <v>303</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>70</v>
@@ -15133,16 +15181,16 @@
         <v>73</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="W21" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>72</v>
@@ -15151,10 +15199,10 @@
         <v>72</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>72</v>
@@ -15202,10 +15250,10 @@
         <v>308</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="AT21" s="1" t="s">
         <v>312</v>
@@ -15214,7 +15262,7 @@
         <v>306</v>
       </c>
       <c r="AV21" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AX21" s="1" t="s">
         <v>88</v>
@@ -15241,7 +15289,7 @@
         <v>76</v>
       </c>
       <c r="BH21" s="1" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="BI21" s="1" t="s">
         <v>75</v>
@@ -15256,7 +15304,7 @@
         <v>76</v>
       </c>
       <c r="BN21" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="BP21" s="1" t="s">
         <v>92</v>
@@ -15286,7 +15334,7 @@
         <v>80</v>
       </c>
       <c r="BZ21" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA21" s="1" t="s">
         <v>72</v>
@@ -15304,13 +15352,13 @@
         <v>76</v>
       </c>
       <c r="CH21" s="1" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="CJ21" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK21" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL21" s="1" t="s">
         <v>315</v>
@@ -15406,42 +15454,42 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>70</v>
@@ -15465,16 +15513,16 @@
         <v>73</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="W22" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>72</v>
@@ -15483,10 +15531,10 @@
         <v>72</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>72</v>
@@ -15534,10 +15582,10 @@
         <v>308</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="AT22" s="1" t="s">
         <v>312</v>
@@ -15546,7 +15594,7 @@
         <v>306</v>
       </c>
       <c r="AV22" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AX22" s="1" t="s">
         <v>88</v>
@@ -15573,7 +15621,7 @@
         <v>76</v>
       </c>
       <c r="BH22" s="1" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="BI22" s="1" t="s">
         <v>75</v>
@@ -15588,7 +15636,7 @@
         <v>76</v>
       </c>
       <c r="BN22" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="BP22" s="1" t="s">
         <v>92</v>
@@ -15618,7 +15666,7 @@
         <v>80</v>
       </c>
       <c r="BZ22" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA22" s="1" t="s">
         <v>72</v>
@@ -15636,13 +15684,13 @@
         <v>76</v>
       </c>
       <c r="CH22" s="1" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="CJ22" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK22" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL22" s="1" t="s">
         <v>315</v>
@@ -15738,42 +15786,42 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>306</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>70</v>
@@ -15797,16 +15845,16 @@
         <v>73</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="W23" s="1" t="s">
         <v>75</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>72</v>
@@ -15815,10 +15863,10 @@
         <v>72</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>72</v>
@@ -15866,10 +15914,10 @@
         <v>308</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="AT23" s="1" t="s">
         <v>312</v>
@@ -15878,7 +15926,7 @@
         <v>306</v>
       </c>
       <c r="AV23" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AX23" s="1" t="s">
         <v>88</v>
@@ -15905,7 +15953,7 @@
         <v>76</v>
       </c>
       <c r="BH23" s="1" t="s">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="BI23" s="1" t="s">
         <v>75</v>
@@ -15920,7 +15968,7 @@
         <v>76</v>
       </c>
       <c r="BN23" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="BP23" s="1" t="s">
         <v>92</v>
@@ -15950,7 +15998,7 @@
         <v>80</v>
       </c>
       <c r="BZ23" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CA23" s="1" t="s">
         <v>72</v>
@@ -15968,13 +16016,13 @@
         <v>76</v>
       </c>
       <c r="CH23" s="1" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="CJ23" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CK23" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="CL23" s="1" t="s">
         <v>315</v>
@@ -16070,20 +16118,20 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="A1:EF23"/>
+  <autoFilter ref="A1:EE23"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -16092,27 +16140,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
-    <col min="7" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" customWidth="1"/>
+    <col min="1" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="7" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -16132,10 +16180,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>196</v>
@@ -16153,10 +16201,10 @@
         <v>224</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -16188,19 +16236,19 @@
         <v>66</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -16220,7 +16268,7 @@
         <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>76</v>
@@ -16232,19 +16280,19 @@
         <v>66</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
@@ -16264,7 +16312,7 @@
         <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>76</v>
@@ -16276,7 +16324,7 @@
         <v>66</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>108</v>
@@ -16288,7 +16336,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -16296,10 +16344,10 @@
         <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>132</v>
@@ -16308,7 +16356,7 @@
         <v>70</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>76</v>
@@ -16320,19 +16368,19 @@
         <v>66</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
@@ -16340,10 +16388,10 @@
         <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>132</v>
@@ -16352,7 +16400,7 @@
         <v>70</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>76</v>
@@ -16364,19 +16412,19 @@
         <v>66</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
@@ -16384,10 +16432,10 @@
         <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>132</v>
@@ -16396,7 +16444,7 @@
         <v>70</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>76</v>
@@ -16408,7 +16456,7 @@
         <v>66</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>108</v>
@@ -16420,7 +16468,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
@@ -16428,10 +16476,10 @@
         <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>132</v>
@@ -16449,10 +16497,10 @@
         <v>303</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>449</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>324</v>
+        <v>468</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>91</v>
@@ -16464,7 +16512,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
@@ -16472,10 +16520,10 @@
         <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>132</v>
@@ -16493,10 +16541,10 @@
         <v>303</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>449</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>324</v>
+        <v>468</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>101</v>
@@ -16508,123 +16556,120 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY6"/>
+  <dimension ref="A1:CY5"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BB6" sqref="BB6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="13" max="15" width="10.77734375" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" customWidth="1"/>
-    <col min="20" max="21" width="9.6640625" customWidth="1"/>
-    <col min="22" max="22" width="23.109375" customWidth="1"/>
-    <col min="23" max="23" width="10.77734375" customWidth="1"/>
-    <col min="24" max="24" width="15.21875" customWidth="1"/>
-    <col min="25" max="26" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="15" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="7.625" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="21" width="9.625" customWidth="1"/>
+    <col min="22" max="22" width="23.125" customWidth="1"/>
+    <col min="23" max="23" width="10.75" customWidth="1"/>
+    <col min="24" max="24" width="15.25" customWidth="1"/>
+    <col min="25" max="26" width="14.125" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="10.77734375" customWidth="1"/>
-    <col min="29" max="29" width="11.88671875" customWidth="1"/>
-    <col min="30" max="31" width="14.109375" customWidth="1"/>
-    <col min="32" max="33" width="17.5546875" customWidth="1"/>
-    <col min="34" max="34" width="24.21875" customWidth="1"/>
-    <col min="35" max="35" width="23.109375" customWidth="1"/>
-    <col min="36" max="36" width="11.88671875" customWidth="1"/>
-    <col min="37" max="37" width="14.109375" customWidth="1"/>
-    <col min="38" max="38" width="17.5546875" customWidth="1"/>
+    <col min="28" max="28" width="10.75" customWidth="1"/>
+    <col min="29" max="29" width="11.875" customWidth="1"/>
+    <col min="30" max="31" width="14.125" customWidth="1"/>
+    <col min="32" max="33" width="17.5" customWidth="1"/>
+    <col min="34" max="34" width="24.25" customWidth="1"/>
+    <col min="35" max="35" width="23.125" customWidth="1"/>
+    <col min="36" max="36" width="11.875" customWidth="1"/>
+    <col min="37" max="37" width="14.125" customWidth="1"/>
+    <col min="38" max="38" width="17.5" customWidth="1"/>
     <col min="39" max="39" width="13" customWidth="1"/>
-    <col min="40" max="40" width="14.109375" customWidth="1"/>
-    <col min="41" max="41" width="7.6640625" customWidth="1"/>
-    <col min="42" max="42" width="17.5546875" customWidth="1"/>
-    <col min="43" max="43" width="19.77734375" customWidth="1"/>
-    <col min="44" max="44" width="11.88671875" customWidth="1"/>
-    <col min="45" max="45" width="8.6640625" customWidth="1"/>
-    <col min="46" max="46" width="16.44140625" customWidth="1"/>
-    <col min="47" max="47" width="14.109375" customWidth="1"/>
-    <col min="48" max="48" width="17.5546875" customWidth="1"/>
-    <col min="49" max="49" width="10.77734375" customWidth="1"/>
-    <col min="50" max="50" width="18.6640625" customWidth="1"/>
-    <col min="51" max="51" width="15.21875" customWidth="1"/>
-    <col min="52" max="52" width="11.88671875" customWidth="1"/>
+    <col min="40" max="40" width="14.125" customWidth="1"/>
+    <col min="41" max="41" width="7.625" customWidth="1"/>
+    <col min="42" max="42" width="17.5" customWidth="1"/>
+    <col min="43" max="43" width="19.75" customWidth="1"/>
+    <col min="44" max="44" width="11.875" customWidth="1"/>
+    <col min="45" max="45" width="8.625" customWidth="1"/>
+    <col min="46" max="46" width="16.5" customWidth="1"/>
+    <col min="47" max="47" width="14.125" customWidth="1"/>
+    <col min="48" max="48" width="17.5" customWidth="1"/>
+    <col min="49" max="49" width="10.75" customWidth="1"/>
+    <col min="50" max="50" width="18.625" customWidth="1"/>
+    <col min="51" max="51" width="15.25" customWidth="1"/>
+    <col min="52" max="52" width="11.875" customWidth="1"/>
     <col min="53" max="53" width="13" customWidth="1"/>
-    <col min="54" max="54" width="11.88671875" customWidth="1"/>
-    <col min="55" max="55" width="17.5546875" customWidth="1"/>
-    <col min="56" max="56" width="20.88671875" customWidth="1"/>
-    <col min="57" max="57" width="16.44140625" customWidth="1"/>
+    <col min="54" max="54" width="11.875" customWidth="1"/>
+    <col min="55" max="55" width="17.5" customWidth="1"/>
+    <col min="56" max="56" width="20.875" customWidth="1"/>
+    <col min="57" max="57" width="16.5" customWidth="1"/>
     <col min="58" max="58" width="13" customWidth="1"/>
-    <col min="59" max="59" width="11.88671875" customWidth="1"/>
-    <col min="60" max="60" width="15.21875" customWidth="1"/>
-    <col min="61" max="61" width="19.77734375" customWidth="1"/>
-    <col min="62" max="62" width="10.77734375" customWidth="1"/>
-    <col min="63" max="63" width="15.21875" customWidth="1"/>
-    <col min="64" max="64" width="7.6640625" customWidth="1"/>
-    <col min="65" max="65" width="11.88671875" customWidth="1"/>
-    <col min="66" max="67" width="17.5546875" customWidth="1"/>
-    <col min="68" max="68" width="16.44140625" customWidth="1"/>
-    <col min="69" max="69" width="11.88671875" customWidth="1"/>
-    <col min="70" max="70" width="18.6640625" customWidth="1"/>
-    <col min="71" max="71" width="16.44140625" customWidth="1"/>
-    <col min="72" max="72" width="19.77734375" customWidth="1"/>
-    <col min="73" max="73" width="10.77734375" customWidth="1"/>
-    <col min="74" max="74" width="14.109375" customWidth="1"/>
-    <col min="75" max="75" width="16.44140625" customWidth="1"/>
+    <col min="59" max="59" width="11.875" customWidth="1"/>
+    <col min="60" max="60" width="15.25" customWidth="1"/>
+    <col min="61" max="61" width="19.75" customWidth="1"/>
+    <col min="62" max="62" width="10.75" customWidth="1"/>
+    <col min="63" max="63" width="15.25" customWidth="1"/>
+    <col min="64" max="64" width="7.625" customWidth="1"/>
+    <col min="65" max="65" width="11.875" customWidth="1"/>
+    <col min="66" max="67" width="17.5" customWidth="1"/>
+    <col min="68" max="68" width="16.5" customWidth="1"/>
+    <col min="69" max="69" width="11.875" customWidth="1"/>
+    <col min="70" max="70" width="18.625" customWidth="1"/>
+    <col min="71" max="71" width="16.5" customWidth="1"/>
+    <col min="72" max="72" width="19.75" customWidth="1"/>
+    <col min="73" max="73" width="10.75" customWidth="1"/>
+    <col min="74" max="74" width="14.125" customWidth="1"/>
+    <col min="75" max="75" width="16.5" customWidth="1"/>
     <col min="76" max="76" width="13" customWidth="1"/>
-    <col min="77" max="77" width="16.44140625" customWidth="1"/>
-    <col min="78" max="78" width="17.5546875" customWidth="1"/>
-    <col min="79" max="79" width="15.21875" customWidth="1"/>
-    <col min="80" max="80" width="14.109375" customWidth="1"/>
-    <col min="81" max="82" width="17.5546875" customWidth="1"/>
-    <col min="83" max="83" width="14.109375" customWidth="1"/>
-    <col min="84" max="84" width="19.77734375" customWidth="1"/>
-    <col min="85" max="85" width="16.44140625" customWidth="1"/>
-    <col min="86" max="86" width="20.88671875" customWidth="1"/>
-    <col min="87" max="87" width="24.21875" customWidth="1"/>
-    <col min="88" max="88" width="16.44140625" customWidth="1"/>
-    <col min="89" max="89" width="17.5546875" customWidth="1"/>
+    <col min="77" max="77" width="16.5" customWidth="1"/>
+    <col min="78" max="78" width="17.5" customWidth="1"/>
+    <col min="79" max="79" width="15.25" customWidth="1"/>
+    <col min="80" max="80" width="14.125" customWidth="1"/>
+    <col min="81" max="82" width="17.5" customWidth="1"/>
+    <col min="83" max="83" width="14.125" customWidth="1"/>
+    <col min="84" max="84" width="19.75" customWidth="1"/>
+    <col min="85" max="85" width="16.5" customWidth="1"/>
+    <col min="86" max="86" width="20.875" customWidth="1"/>
+    <col min="87" max="87" width="24.25" customWidth="1"/>
+    <col min="88" max="88" width="16.5" customWidth="1"/>
+    <col min="89" max="89" width="17.5" customWidth="1"/>
     <col min="90" max="90" width="22" customWidth="1"/>
-    <col min="91" max="92" width="20.88671875" customWidth="1"/>
-    <col min="93" max="93" width="19.77734375" customWidth="1"/>
-    <col min="94" max="94" width="17.5546875" customWidth="1"/>
-    <col min="95" max="95" width="20.88671875" customWidth="1"/>
-    <col min="96" max="96" width="18.6640625" customWidth="1"/>
-    <col min="97" max="97" width="8.6640625" customWidth="1"/>
-    <col min="98" max="98" width="15.21875" customWidth="1"/>
+    <col min="91" max="92" width="20.875" customWidth="1"/>
+    <col min="93" max="93" width="19.75" customWidth="1"/>
+    <col min="94" max="94" width="17.5" customWidth="1"/>
+    <col min="95" max="95" width="20.875" customWidth="1"/>
+    <col min="96" max="96" width="18.625" customWidth="1"/>
+    <col min="97" max="97" width="8.625" customWidth="1"/>
+    <col min="98" max="98" width="15.25" customWidth="1"/>
     <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="14.109375" customWidth="1"/>
-    <col min="101" max="101" width="10.77734375" customWidth="1"/>
-    <col min="102" max="102" width="11.88671875" customWidth="1"/>
-    <col min="103" max="103" width="17.5546875" customWidth="1"/>
+    <col min="100" max="100" width="14.125" customWidth="1"/>
+    <col min="101" max="101" width="10.75" customWidth="1"/>
+    <col min="102" max="102" width="11.875" customWidth="1"/>
+    <col min="103" max="103" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
@@ -16662,7 +16707,7 @@
         <v>1</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
@@ -16719,16 +16764,16 @@
         <v>34</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>196</v>
@@ -16752,7 +16797,7 @@
         <v>240</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>237</v>
@@ -16761,19 +16806,19 @@
         <v>238</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>244</v>
@@ -16803,16 +16848,16 @@
         <v>251</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>252</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>16</v>
@@ -16857,16 +16902,16 @@
         <v>275</v>
       </c>
       <c r="BZ1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="CB1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="CD1" s="1" t="s">
         <v>284</v>
@@ -16935,12 +16980,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>450</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>67</v>
@@ -16949,7 +16994,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>82</v>
@@ -16967,7 +17012,7 @@
         <v>88</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>66</v>
@@ -17021,7 +17066,7 @@
         <v>72</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>72</v>
@@ -17042,19 +17087,19 @@
         <v>303</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>76</v>
@@ -17096,7 +17141,7 @@
         <v>80</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>72</v>
@@ -17120,10 +17165,10 @@
         <v>76</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>193</v>
@@ -17150,13 +17195,13 @@
         <v>194</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="CI2" s="1" t="s">
         <v>75</v>
@@ -17192,7 +17237,7 @@
         <v>191</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="CX2" s="1" t="s">
         <v>89</v>
@@ -17201,10 +17246,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17216,111 +17260,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB5"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AR6" sqref="AR6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AM29" sqref="AM29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="13" max="15" width="10.77734375" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" customWidth="1"/>
-    <col min="20" max="21" width="9.6640625" customWidth="1"/>
-    <col min="22" max="22" width="23.109375" customWidth="1"/>
-    <col min="23" max="23" width="10.77734375" customWidth="1"/>
-    <col min="24" max="24" width="15.21875" customWidth="1"/>
-    <col min="25" max="26" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="15" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="7.625" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="21" width="9.625" customWidth="1"/>
+    <col min="22" max="22" width="23.125" customWidth="1"/>
+    <col min="23" max="23" width="10.75" customWidth="1"/>
+    <col min="24" max="24" width="15.25" customWidth="1"/>
+    <col min="25" max="26" width="14.125" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="10.77734375" customWidth="1"/>
-    <col min="29" max="29" width="11.88671875" customWidth="1"/>
-    <col min="30" max="31" width="14.109375" customWidth="1"/>
-    <col min="32" max="33" width="17.5546875" customWidth="1"/>
-    <col min="34" max="34" width="24.21875" customWidth="1"/>
-    <col min="35" max="35" width="23.109375" customWidth="1"/>
-    <col min="36" max="36" width="11.88671875" customWidth="1"/>
-    <col min="37" max="37" width="14.109375" customWidth="1"/>
-    <col min="38" max="38" width="17.5546875" customWidth="1"/>
-    <col min="39" max="39" width="15.21875" customWidth="1"/>
-    <col min="40" max="40" width="16.44140625" customWidth="1"/>
+    <col min="28" max="28" width="10.75" customWidth="1"/>
+    <col min="29" max="29" width="11.875" customWidth="1"/>
+    <col min="30" max="31" width="14.125" customWidth="1"/>
+    <col min="32" max="33" width="17.5" customWidth="1"/>
+    <col min="34" max="34" width="24.25" customWidth="1"/>
+    <col min="35" max="35" width="23.125" customWidth="1"/>
+    <col min="36" max="36" width="11.875" customWidth="1"/>
+    <col min="37" max="37" width="14.125" customWidth="1"/>
+    <col min="38" max="38" width="17.5" customWidth="1"/>
+    <col min="39" max="39" width="15.25" customWidth="1"/>
+    <col min="40" max="40" width="16.5" customWidth="1"/>
     <col min="41" max="41" width="13" customWidth="1"/>
-    <col min="42" max="43" width="14.109375" customWidth="1"/>
-    <col min="44" max="44" width="7.6640625" customWidth="1"/>
-    <col min="45" max="45" width="17.5546875" customWidth="1"/>
-    <col min="46" max="46" width="19.77734375" customWidth="1"/>
-    <col min="47" max="47" width="11.88671875" customWidth="1"/>
-    <col min="48" max="48" width="8.6640625" customWidth="1"/>
-    <col min="49" max="49" width="16.44140625" customWidth="1"/>
-    <col min="50" max="50" width="14.109375" customWidth="1"/>
-    <col min="51" max="51" width="17.5546875" customWidth="1"/>
-    <col min="52" max="52" width="10.77734375" customWidth="1"/>
-    <col min="53" max="53" width="18.6640625" customWidth="1"/>
-    <col min="54" max="54" width="15.21875" customWidth="1"/>
-    <col min="55" max="55" width="11.88671875" customWidth="1"/>
+    <col min="42" max="43" width="14.125" customWidth="1"/>
+    <col min="44" max="44" width="7.625" customWidth="1"/>
+    <col min="45" max="45" width="17.5" customWidth="1"/>
+    <col min="46" max="46" width="19.75" customWidth="1"/>
+    <col min="47" max="47" width="11.875" customWidth="1"/>
+    <col min="48" max="48" width="8.625" customWidth="1"/>
+    <col min="49" max="49" width="16.5" customWidth="1"/>
+    <col min="50" max="50" width="14.125" customWidth="1"/>
+    <col min="51" max="51" width="17.5" customWidth="1"/>
+    <col min="52" max="52" width="10.75" customWidth="1"/>
+    <col min="53" max="53" width="18.625" customWidth="1"/>
+    <col min="54" max="54" width="15.25" customWidth="1"/>
+    <col min="55" max="55" width="11.875" customWidth="1"/>
     <col min="56" max="56" width="13" customWidth="1"/>
-    <col min="57" max="57" width="11.88671875" customWidth="1"/>
-    <col min="58" max="58" width="17.5546875" customWidth="1"/>
-    <col min="59" max="59" width="20.88671875" customWidth="1"/>
-    <col min="60" max="60" width="16.44140625" customWidth="1"/>
+    <col min="57" max="57" width="11.875" customWidth="1"/>
+    <col min="58" max="58" width="17.5" customWidth="1"/>
+    <col min="59" max="59" width="20.875" customWidth="1"/>
+    <col min="60" max="60" width="16.5" customWidth="1"/>
     <col min="61" max="61" width="13" customWidth="1"/>
-    <col min="62" max="62" width="11.88671875" customWidth="1"/>
-    <col min="63" max="63" width="15.21875" customWidth="1"/>
-    <col min="64" max="64" width="19.77734375" customWidth="1"/>
-    <col min="65" max="65" width="10.77734375" customWidth="1"/>
-    <col min="66" max="66" width="15.21875" customWidth="1"/>
-    <col min="67" max="67" width="7.6640625" customWidth="1"/>
-    <col min="68" max="68" width="11.88671875" customWidth="1"/>
-    <col min="69" max="70" width="17.5546875" customWidth="1"/>
-    <col min="71" max="71" width="16.44140625" customWidth="1"/>
-    <col min="72" max="72" width="11.88671875" customWidth="1"/>
-    <col min="73" max="73" width="18.6640625" customWidth="1"/>
-    <col min="74" max="74" width="16.44140625" customWidth="1"/>
-    <col min="75" max="75" width="19.77734375" customWidth="1"/>
-    <col min="76" max="76" width="10.77734375" customWidth="1"/>
-    <col min="77" max="77" width="14.109375" customWidth="1"/>
-    <col min="78" max="78" width="16.44140625" customWidth="1"/>
+    <col min="62" max="62" width="11.875" customWidth="1"/>
+    <col min="63" max="63" width="15.25" customWidth="1"/>
+    <col min="64" max="64" width="19.75" customWidth="1"/>
+    <col min="65" max="65" width="10.75" customWidth="1"/>
+    <col min="66" max="66" width="15.25" customWidth="1"/>
+    <col min="67" max="67" width="7.625" customWidth="1"/>
+    <col min="68" max="68" width="11.875" customWidth="1"/>
+    <col min="69" max="70" width="17.5" customWidth="1"/>
+    <col min="71" max="71" width="16.5" customWidth="1"/>
+    <col min="72" max="72" width="11.875" customWidth="1"/>
+    <col min="73" max="73" width="18.625" customWidth="1"/>
+    <col min="74" max="74" width="16.5" customWidth="1"/>
+    <col min="75" max="75" width="19.75" customWidth="1"/>
+    <col min="76" max="76" width="10.75" customWidth="1"/>
+    <col min="77" max="77" width="14.125" customWidth="1"/>
+    <col min="78" max="78" width="16.5" customWidth="1"/>
     <col min="79" max="79" width="13" customWidth="1"/>
-    <col min="80" max="80" width="16.44140625" customWidth="1"/>
-    <col min="81" max="81" width="17.5546875" customWidth="1"/>
-    <col min="82" max="82" width="15.21875" customWidth="1"/>
-    <col min="83" max="83" width="14.109375" customWidth="1"/>
-    <col min="84" max="85" width="17.5546875" customWidth="1"/>
-    <col min="86" max="86" width="14.109375" customWidth="1"/>
-    <col min="87" max="87" width="19.77734375" customWidth="1"/>
-    <col min="88" max="88" width="16.44140625" customWidth="1"/>
-    <col min="89" max="89" width="20.88671875" customWidth="1"/>
-    <col min="90" max="90" width="24.21875" customWidth="1"/>
-    <col min="91" max="91" width="16.44140625" customWidth="1"/>
-    <col min="92" max="92" width="17.5546875" customWidth="1"/>
+    <col min="80" max="80" width="16.5" customWidth="1"/>
+    <col min="81" max="81" width="17.5" customWidth="1"/>
+    <col min="82" max="82" width="15.25" customWidth="1"/>
+    <col min="83" max="83" width="14.125" customWidth="1"/>
+    <col min="84" max="85" width="17.5" customWidth="1"/>
+    <col min="86" max="86" width="14.125" customWidth="1"/>
+    <col min="87" max="87" width="19.75" customWidth="1"/>
+    <col min="88" max="88" width="16.5" customWidth="1"/>
+    <col min="89" max="89" width="20.875" customWidth="1"/>
+    <col min="90" max="90" width="24.25" customWidth="1"/>
+    <col min="91" max="91" width="16.5" customWidth="1"/>
+    <col min="92" max="92" width="17.5" customWidth="1"/>
     <col min="93" max="93" width="22" customWidth="1"/>
-    <col min="94" max="95" width="20.88671875" customWidth="1"/>
-    <col min="96" max="96" width="19.77734375" customWidth="1"/>
-    <col min="97" max="97" width="17.5546875" customWidth="1"/>
-    <col min="98" max="98" width="20.88671875" customWidth="1"/>
-    <col min="99" max="99" width="18.6640625" customWidth="1"/>
-    <col min="100" max="100" width="8.6640625" customWidth="1"/>
-    <col min="101" max="101" width="15.21875" customWidth="1"/>
+    <col min="94" max="95" width="20.875" customWidth="1"/>
+    <col min="96" max="96" width="19.75" customWidth="1"/>
+    <col min="97" max="97" width="17.5" customWidth="1"/>
+    <col min="98" max="98" width="20.875" customWidth="1"/>
+    <col min="99" max="99" width="18.625" customWidth="1"/>
+    <col min="100" max="100" width="8.625" customWidth="1"/>
+    <col min="101" max="101" width="15.25" customWidth="1"/>
     <col min="102" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="14.109375" customWidth="1"/>
-    <col min="104" max="104" width="10.77734375" customWidth="1"/>
-    <col min="105" max="105" width="11.88671875" customWidth="1"/>
-    <col min="106" max="106" width="17.5546875" customWidth="1"/>
+    <col min="103" max="103" width="14.125" customWidth="1"/>
+    <col min="104" max="104" width="10.75" customWidth="1"/>
+    <col min="105" max="105" width="11.875" customWidth="1"/>
+    <col min="106" max="106" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
@@ -17358,7 +17402,7 @@
         <v>1</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
@@ -17415,16 +17459,16 @@
         <v>34</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>196</v>
@@ -17445,7 +17489,7 @@
         <v>195</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>236</v>
@@ -17457,7 +17501,7 @@
         <v>240</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>237</v>
@@ -17466,19 +17510,19 @@
         <v>238</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="BB1" s="1" t="s">
         <v>244</v>
@@ -17508,16 +17552,16 @@
         <v>251</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="BM1" s="1" t="s">
         <v>252</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BO1" s="1" t="s">
         <v>16</v>
@@ -17562,16 +17606,16 @@
         <v>275</v>
       </c>
       <c r="CC1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="CE1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="CG1" s="1" t="s">
         <v>284</v>
@@ -17640,9 +17684,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>126</v>
@@ -17654,7 +17698,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>82</v>
@@ -17672,7 +17716,7 @@
         <v>88</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>66</v>
@@ -17726,7 +17770,7 @@
         <v>72</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>72</v>
@@ -17747,7 +17791,7 @@
         <v>303</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>75</v>
@@ -17759,16 +17803,16 @@
         <v>76</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>503</v>
+        <v>448</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>76</v>
@@ -17810,7 +17854,7 @@
         <v>80</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>502</v>
+        <v>447</v>
       </c>
       <c r="BJ2" s="1" t="s">
         <v>72</v>
@@ -17834,10 +17878,10 @@
         <v>76</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BU2" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="BV2" s="1" t="s">
         <v>193</v>
@@ -17864,13 +17908,13 @@
         <v>194</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>75</v>
@@ -17906,7 +17950,7 @@
         <v>191</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="DA2" s="1" t="s">
         <v>89</v>
@@ -17915,9 +17959,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17926,15 +17970,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE20"/>
+  <dimension ref="A1:CH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -17960,43 +18004,43 @@
         <v>202</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>196</v>
@@ -18011,181 +18055,181 @@
         <v>9</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="BU1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="CD1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>430</v>
-      </c>
     </row>
-    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -18217,13 +18261,13 @@
         <v>310</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>72</v>
+        <v>458</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>310</v>
@@ -18250,7 +18294,7 @@
         <v>72</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>308</v>
@@ -18265,7 +18309,7 @@
         <v>88</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>76</v>
@@ -18385,16 +18429,16 @@
         <v>76</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>72</v>
+        <v>461</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>76</v>
@@ -18435,22 +18479,31 @@
       <c r="CE2" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="CF2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>132</v>
@@ -18465,22 +18518,22 @@
         <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>72</v>
+        <v>463</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>76</v>
@@ -18501,7 +18554,7 @@
         <v>72</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>308</v>
@@ -18516,7 +18569,7 @@
         <v>88</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>76</v>
@@ -18636,16 +18689,16 @@
         <v>76</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>75</v>
+        <v>464</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>72</v>
+        <v>465</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="BS3" s="1" t="s">
         <v>76</v>
@@ -18686,22 +18739,31 @@
       <c r="CE3" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="CF3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>132</v>
@@ -18710,7 +18772,7 @@
         <v>157</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>76</v>
@@ -18719,10 +18781,10 @@
         <v>162</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>75</v>
+        <v>466</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>72</v>
@@ -18767,7 +18829,7 @@
         <v>88</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>76</v>
@@ -18887,16 +18949,16 @@
         <v>76</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>75</v>
+        <v>467</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="BS4" s="1" t="s">
         <v>76</v>
@@ -18937,23 +18999,32 @@
       <c r="CE4" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="CF4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="5" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18963,85 +19034,84 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX13"/>
+  <dimension ref="A1:CA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" customWidth="1"/>
-    <col min="17" max="18" width="15.21875" customWidth="1"/>
-    <col min="19" max="19" width="14.109375" customWidth="1"/>
-    <col min="20" max="20" width="17.5546875" customWidth="1"/>
-    <col min="21" max="21" width="14.109375" customWidth="1"/>
-    <col min="22" max="22" width="16.44140625" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" customWidth="1"/>
-    <col min="24" max="24" width="8.6640625" customWidth="1"/>
-    <col min="25" max="25" width="10.77734375" customWidth="1"/>
-    <col min="26" max="26" width="7.6640625" customWidth="1"/>
-    <col min="27" max="27" width="17.5546875" customWidth="1"/>
-    <col min="28" max="28" width="9.6640625" customWidth="1"/>
-    <col min="29" max="29" width="15.21875" customWidth="1"/>
-    <col min="30" max="30" width="10.77734375" customWidth="1"/>
-    <col min="31" max="31" width="15.21875" customWidth="1"/>
-    <col min="32" max="32" width="22" customWidth="1"/>
-    <col min="33" max="33" width="11.88671875" customWidth="1"/>
-    <col min="34" max="34" width="20.88671875" customWidth="1"/>
-    <col min="35" max="35" width="24.21875" customWidth="1"/>
-    <col min="36" max="36" width="23.109375" customWidth="1"/>
-    <col min="37" max="38" width="13" customWidth="1"/>
-    <col min="39" max="40" width="14.109375" customWidth="1"/>
-    <col min="41" max="42" width="15.21875" customWidth="1"/>
-    <col min="43" max="44" width="13" customWidth="1"/>
-    <col min="45" max="45" width="14.109375" customWidth="1"/>
-    <col min="46" max="46" width="16.44140625" customWidth="1"/>
-    <col min="47" max="47" width="23.109375" customWidth="1"/>
-    <col min="48" max="48" width="19.77734375" customWidth="1"/>
-    <col min="49" max="49" width="23.109375" customWidth="1"/>
-    <col min="50" max="50" width="15.21875" customWidth="1"/>
-    <col min="51" max="51" width="18.6640625" customWidth="1"/>
-    <col min="52" max="52" width="17.5546875" customWidth="1"/>
-    <col min="53" max="54" width="16.44140625" customWidth="1"/>
-    <col min="55" max="56" width="17.5546875" customWidth="1"/>
-    <col min="57" max="57" width="16.44140625" customWidth="1"/>
-    <col min="58" max="58" width="17.5546875" customWidth="1"/>
-    <col min="59" max="59" width="18.6640625" customWidth="1"/>
-    <col min="60" max="60" width="25.44140625" customWidth="1"/>
-    <col min="61" max="61" width="27.6640625" customWidth="1"/>
-    <col min="62" max="62" width="20.88671875" customWidth="1"/>
-    <col min="63" max="63" width="16.44140625" customWidth="1"/>
-    <col min="64" max="64" width="23.109375" customWidth="1"/>
-    <col min="65" max="65" width="9.6640625" customWidth="1"/>
-    <col min="66" max="66" width="23.109375" customWidth="1"/>
-    <col min="67" max="67" width="18.6640625" customWidth="1"/>
-    <col min="68" max="68" width="24.21875" customWidth="1"/>
-    <col min="69" max="69" width="19.77734375" customWidth="1"/>
-    <col min="70" max="70" width="15.21875" customWidth="1"/>
-    <col min="71" max="71" width="16.44140625" customWidth="1"/>
-    <col min="72" max="72" width="18.6640625" customWidth="1"/>
-    <col min="73" max="73" width="19.77734375" customWidth="1"/>
-    <col min="74" max="74" width="26.5546875" customWidth="1"/>
-    <col min="75" max="75" width="14.109375" customWidth="1"/>
-    <col min="76" max="76" width="13" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="20.875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="10.75" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="16" max="17" width="15.25" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="16.5" customWidth="1"/>
+    <col min="22" max="22" width="11.875" customWidth="1"/>
+    <col min="23" max="23" width="8.625" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="25" max="25" width="7.625" customWidth="1"/>
+    <col min="26" max="26" width="17.5" customWidth="1"/>
+    <col min="27" max="27" width="9.625" customWidth="1"/>
+    <col min="28" max="28" width="15.25" customWidth="1"/>
+    <col min="29" max="29" width="10.75" customWidth="1"/>
+    <col min="30" max="30" width="15.25" customWidth="1"/>
+    <col min="31" max="31" width="22" customWidth="1"/>
+    <col min="32" max="32" width="11.875" customWidth="1"/>
+    <col min="33" max="33" width="20.875" customWidth="1"/>
+    <col min="34" max="34" width="24.25" customWidth="1"/>
+    <col min="35" max="35" width="23.125" customWidth="1"/>
+    <col min="36" max="37" width="13" customWidth="1"/>
+    <col min="38" max="39" width="14.125" customWidth="1"/>
+    <col min="40" max="41" width="15.25" customWidth="1"/>
+    <col min="42" max="43" width="13" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="16.5" customWidth="1"/>
+    <col min="46" max="46" width="23.125" customWidth="1"/>
+    <col min="47" max="47" width="19.75" customWidth="1"/>
+    <col min="48" max="48" width="23.125" customWidth="1"/>
+    <col min="49" max="49" width="15.25" customWidth="1"/>
+    <col min="50" max="50" width="18.625" customWidth="1"/>
+    <col min="51" max="51" width="17.5" customWidth="1"/>
+    <col min="52" max="53" width="16.5" customWidth="1"/>
+    <col min="54" max="55" width="17.5" customWidth="1"/>
+    <col min="56" max="56" width="16.5" customWidth="1"/>
+    <col min="57" max="57" width="17.5" customWidth="1"/>
+    <col min="58" max="58" width="18.625" customWidth="1"/>
+    <col min="59" max="59" width="25.5" customWidth="1"/>
+    <col min="60" max="60" width="27.625" customWidth="1"/>
+    <col min="61" max="61" width="20.875" customWidth="1"/>
+    <col min="62" max="62" width="16.5" customWidth="1"/>
+    <col min="63" max="63" width="23.125" customWidth="1"/>
+    <col min="64" max="64" width="9.625" customWidth="1"/>
+    <col min="65" max="65" width="23.125" customWidth="1"/>
+    <col min="66" max="66" width="18.625" customWidth="1"/>
+    <col min="67" max="67" width="24.25" customWidth="1"/>
+    <col min="68" max="68" width="19.75" customWidth="1"/>
+    <col min="69" max="69" width="15.25" customWidth="1"/>
+    <col min="70" max="70" width="16.5" customWidth="1"/>
+    <col min="71" max="71" width="18.625" customWidth="1"/>
+    <col min="72" max="72" width="19.75" customWidth="1"/>
+    <col min="73" max="73" width="26.5" customWidth="1"/>
+    <col min="74" max="74" width="14.125" customWidth="1"/>
+    <col min="75" max="75" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>197</v>
       </c>
@@ -19070,43 +19140,43 @@
         <v>202</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>196</v>
@@ -19121,174 +19191,183 @@
         <v>9</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="AN1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="BM1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="BN1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="BP1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="BR1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>430</v>
+      <c r="BY1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>449</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>82</v>
@@ -19297,7 +19376,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>76</v>
@@ -19306,13 +19385,13 @@
         <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
+        <v>454</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>76</v>
@@ -19339,7 +19418,7 @@
         <v>72</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>308</v>
@@ -19354,7 +19433,7 @@
         <v>72</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>76</v>
@@ -19462,10 +19541,10 @@
         <v>72</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>72</v>
+        <v>456</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="BN2" s="1" t="s">
         <v>76</v>
@@ -19500,10 +19579,19 @@
       <c r="BX2" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="BY2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="3" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>449</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>67</v>
@@ -19536,13 +19624,13 @@
         <v>76</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>72</v>
+        <v>458</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>310</v>
@@ -19569,7 +19657,7 @@
         <v>72</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>308</v>
@@ -19584,7 +19672,7 @@
         <v>72</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>76</v>
@@ -19686,16 +19774,16 @@
         <v>76</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>72</v>
+        <v>461</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="BN3" s="1" t="s">
         <v>76</v>
@@ -19730,34 +19818,43 @@
       <c r="BX3" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="BY3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="4" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>449</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>132</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>76</v>
@@ -19766,19 +19863,19 @@
         <v>76</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>75</v>
+        <v>462</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>72</v>
+        <v>463</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>76</v>
@@ -19799,7 +19896,7 @@
         <v>72</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>303</v>
+        <v>430</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>308</v>
@@ -19814,7 +19911,7 @@
         <v>72</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>76</v>
@@ -19916,16 +20013,16 @@
         <v>76</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>75</v>
+        <v>464</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>72</v>
+        <v>465</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="BN4" s="1" t="s">
         <v>76</v>
@@ -19960,34 +20057,43 @@
       <c r="BX4" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="BY4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="5" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>449</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>132</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>76</v>
@@ -19996,19 +20102,19 @@
         <v>76</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>330</v>
+        <v>162</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>330</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>76</v>
@@ -20029,7 +20135,7 @@
         <v>72</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>433</v>
+        <v>303</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>308</v>
@@ -20044,7 +20150,7 @@
         <v>72</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>76</v>
@@ -20146,16 +20252,16 @@
         <v>76</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>75</v>
+        <v>467</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="BN5" s="1" t="s">
         <v>76</v>
@@ -20190,15 +20296,24 @@
       <c r="BX5" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="BY5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="6" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/深港/深港转托管/测试结果.xlsx
+++ b/用例数据/深港/深港转托管/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8820" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="exchangerights" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="524">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -1605,6 +1605,22 @@
   </si>
   <si>
     <t>000007123395</t>
+  </si>
+  <si>
+    <t>7.500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7.500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -16567,8 +16583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="CJ1" workbookViewId="0">
+      <selection activeCell="CT7" sqref="CT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17012,7 +17028,7 @@
         <v>88</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>355</v>
+        <v>522</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>66</v>
@@ -17096,7 +17112,7 @@
         <v>356</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>355</v>
+        <v>521</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>445</v>
@@ -17198,10 +17214,10 @@
         <v>355</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>355</v>
+        <v>520</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>355</v>
+        <v>520</v>
       </c>
       <c r="CI2" s="1" t="s">
         <v>75</v>
@@ -17237,7 +17253,7 @@
         <v>191</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>355</v>
+        <v>523</v>
       </c>
       <c r="CX2" s="1" t="s">
         <v>89</v>
@@ -17260,8 +17276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AM29" sqref="AM29"/>
+    <sheetView tabSelected="1" topLeftCell="CM1" workbookViewId="0">
+      <selection activeCell="CW2" sqref="CW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17716,7 +17732,7 @@
         <v>88</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>355</v>
+        <v>520</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>66</v>
@@ -17809,7 +17825,7 @@
         <v>76</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>355</v>
+        <v>520</v>
       </c>
       <c r="AR2" s="3" t="s">
         <v>448</v>
@@ -17911,10 +17927,10 @@
         <v>355</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>355</v>
+        <v>520</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>355</v>
+        <v>520</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>75</v>
@@ -17950,7 +17966,7 @@
         <v>191</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>355</v>
+        <v>523</v>
       </c>
       <c r="DA2" s="1" t="s">
         <v>89</v>
